--- a/pilot2/megStim2.xlsx
+++ b/pilot2/megStim2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,16 +471,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -519,16 +519,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -543,16 +543,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -567,16 +567,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -591,16 +591,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -615,16 +615,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -639,16 +639,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -663,16 +663,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -687,16 +687,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -735,16 +735,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -759,16 +759,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -807,19 +807,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -855,16 +855,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -879,16 +879,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -903,16 +903,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -927,16 +927,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -951,16 +951,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -975,16 +975,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,16 +1071,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1119,16 +1119,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1143,22 +1143,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1167,16 +1167,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1191,16 +1191,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1215,16 +1215,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1239,16 +1239,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1263,16 +1263,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1287,22 +1287,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1311,16 +1311,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1359,16 +1359,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1383,16 +1383,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1407,16 +1407,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1431,16 +1431,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1455,16 +1455,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1479,16 +1479,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1575,16 +1575,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1599,16 +1599,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1623,16 +1623,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1647,16 +1647,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1719,16 +1719,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -1791,16 +1791,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1863,16 +1863,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1887,16 +1887,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -1911,16 +1911,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -1959,16 +1959,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -2031,16 +2031,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2079,16 +2079,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -2127,22 +2127,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2151,16 +2151,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -2175,16 +2175,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2199,16 +2199,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -2223,16 +2223,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -2271,16 +2271,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -2295,16 +2295,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -2319,16 +2319,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -2343,16 +2343,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -2391,22 +2391,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2415,16 +2415,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -2439,19 +2439,19 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2463,19 +2463,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -2535,22 +2535,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2559,16 +2559,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -2583,16 +2583,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -2607,19 +2607,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -2631,19 +2631,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -2655,16 +2655,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2703,16 +2703,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -2727,16 +2727,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2751,16 +2751,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -2775,19 +2775,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -2799,19 +2799,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -2823,16 +2823,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2847,16 +2847,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -2871,16 +2871,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2895,16 +2895,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -2943,22 +2943,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2967,16 +2967,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3015,16 +3015,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -3039,16 +3039,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -3063,16 +3063,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -3087,16 +3087,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -3131,23 +3131,23 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3159,16 +3159,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3183,19 +3183,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3207,16 +3207,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -3255,16 +3255,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3279,16 +3279,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -3303,19 +3303,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3327,16 +3327,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -3351,19 +3351,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3375,16 +3375,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -3447,16 +3447,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -3495,22 +3495,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3519,16 +3519,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -3543,19 +3543,19 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -3567,16 +3567,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -3615,16 +3615,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -3687,16 +3687,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -3735,19 +3735,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -3759,16 +3759,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3807,16 +3807,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -3855,19 +3855,19 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -3879,16 +3879,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>5</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3951,16 +3951,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -3975,16 +3975,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -3999,16 +3999,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -4019,23 +4019,23 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4047,22 +4047,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4071,16 +4071,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -4095,16 +4095,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>6</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -4167,16 +4167,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -4215,19 +4215,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4235,20 +4235,20 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -4263,16 +4263,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -4287,16 +4287,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -4311,19 +4311,19 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -4335,22 +4335,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4359,16 +4359,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -4383,19 +4383,19 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0090</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -4407,16 +4407,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -4431,16 +4431,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -4451,20 +4451,20 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -4503,19 +4503,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>frame_0270</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -4551,16 +4551,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -4575,19 +4575,19 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0225</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -4599,22 +4599,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4623,22 +4623,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>frame_0180</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4647,16 +4647,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -4667,20 +4667,20 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -4695,19 +4695,19 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>frame_0135</t>
+          <t>frame_0001</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -4719,16 +4719,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>frame_0090</t>
+          <t>frame_0270</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -4743,16 +4743,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>frame_0315</t>
+          <t>frame_0180</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -4776,10 +4776,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -4791,16 +4791,16 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>frame_0045</t>
+          <t>frame_0315</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -4815,16 +4815,16 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>frame_0001</t>
+          <t>frame_0135</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -4839,16 +4839,16 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>frame_0225</t>
+          <t>frame_0045</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -4863,21 +4863,2229 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>20</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>3</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>21</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
           <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>frame_0270</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D187" t="n">
         <v>7</v>
       </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>21</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>21</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>9</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>21</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>21</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>21</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>21</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>21</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>6</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>21</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>22</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>22</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>22</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>8</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>22</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>4</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>22</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>22</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>22</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>22</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>7</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>22</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>22</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>9</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>23</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>3</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>23</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>23</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>23</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>4</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>23</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>7</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>23</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>8</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>23</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>6</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>23</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>23</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>24</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>3</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>24</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>4</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>24</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>24</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>24</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>24</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>2</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>24</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>9</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>24</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>24</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>5</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>25</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>25</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>25</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>25</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>8</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>25</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>7</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>25</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>9</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>25</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>6</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>25</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>25</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>4</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>26</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>8</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>26</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>26</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>3</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>26</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>6</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>26</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>9</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>26</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>4</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>26</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>26</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>26</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>5</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>27</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>7</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>27</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>8</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>27</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>3</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>27</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>27</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>4</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>27</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>27</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>27</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>6</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>27</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>28</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>4</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>28</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>28</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>9</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>28</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>3</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>28</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>5</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>28</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>7</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>28</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>8</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>28</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>2</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>28</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>6</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>29</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>4</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>29</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>29</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>9</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>29</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>2</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>29</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>8</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>29</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>3</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>29</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>6</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>29</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>5</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>29</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>7</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>30</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>30</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0045.png</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>frame_0045</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>9</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>30</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0135.png</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>frame_0135</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>4</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>30</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0090.png</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>frame_0090</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>3</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>30</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0001.png</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>frame_0001</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>30</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0225.png</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>frame_0225</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>6</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>30</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0180.png</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>frame_0180</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>5</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>30</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0270.png</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>frame_0270</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>7</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>30</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>C:/Users/meglab/EExperiments/Sebastian/BlenderPilot/Stimuli/frame_0315.png</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>frame_0315</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>8</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="n">
         <v>0</v>
       </c>
     </row>
